--- a/ApplicationTestdata/test_data.xlsx
+++ b/ApplicationTestdata/test_data.xlsx
@@ -22,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve">sa.johngrey@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@1234</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123456</t>
@@ -42,6 +45,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -63,6 +67,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,17 +138,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -154,10 +159,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="sa.johngrey@gmail.com"/>
-    <hyperlink ref="B1" r:id="rId2" display="Test@123456"/>
+    <hyperlink ref="B1" r:id="rId2" display="Test@1234"/>
+    <hyperlink ref="A2" r:id="rId3" display="sa.johngrey@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId4" display="Test@123456"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -176,21 +191,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -205,21 +219,20 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/ApplicationTestdata/test_data.xlsx
+++ b/ApplicationTestdata/test_data.xlsx
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">sa.johngrey@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@4321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@123</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123456</t>
@@ -138,17 +144,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -158,21 +163,29 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="sa.johngrey@gmail.com"/>
     <hyperlink ref="B1" r:id="rId2" display="Test@1234"/>
-    <hyperlink ref="A2" r:id="rId3" display="sa.johngrey@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId4" display="Test@123456"/>
+    <hyperlink ref="C1" r:id="rId3" display="Test@4321"/>
+    <hyperlink ref="D1" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A2" r:id="rId5" display="sa.johngrey@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId6" display="Test@123456"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -196,9 +209,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -224,9 +234,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
